--- a/PrimeraParte/remfam2010_2023_datos2.xlsx
+++ b/PrimeraParte/remfam2010_2023_datos2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\Desktop\CABI\PrimeraParte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827DDF11-7D9C-4707-9DB9-2FFF24C2EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B941CDE-0AFB-4A48-B028-3985FE298F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,7 +570,7 @@
   <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1548,84 +1548,84 @@
         <v>0.18288613083157029</v>
       </c>
       <c r="C15">
-        <f>((SUM(B11:B13)-SUM(C2:C4))/SUM(C2:C4))</f>
-        <v>0.35403022430693382</v>
+        <f>(SUM(C2:C4)-SUM(B11:B13))/SUM(B11:B13)</f>
+        <v>-0.2614640485504271</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:V15" si="0">((SUM(C11:C13)-SUM(D2:D4))/SUM(D2:D4))</f>
-        <v>0.11592598620754706</v>
+        <f t="shared" ref="D15:V15" si="0">(SUM(D2:D4)-SUM(C11:C13))/SUM(C11:C13)</f>
+        <v>-0.10388322132502648</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.22040695194649365</v>
+        <v>-0.18060119339287159</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.24064824731749046</v>
+        <v>-0.19396976366009963</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.20261274764680631</v>
+        <v>-0.16847713284535329</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.14821128200462599</v>
+        <v>-0.12908014781553842</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>8.0676630360772168E-3</v>
+        <v>-8.0030967482670728E-3</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>0.11331447050544881</v>
+        <v>-0.10178118896990859</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>0.11228666047635026</v>
+        <v>-0.10095118863356874</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.11430162477536854</v>
+        <v>-0.10257691654933244</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>0.12351093132499312</v>
+        <v>-0.10993300365963742</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>0.14435842360737516</v>
+        <v>-0.12614791015590404</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>0.13277902599032462</v>
+        <v>-0.11721529348960484</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>0.15812001258508948</v>
+        <v>-0.1365316295952291</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>0.11077596467322046</v>
+        <v>-9.9728449477037143E-2</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>0.17624117459729399</v>
+        <v>-0.14983421631846303</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>0.26411101778281382</v>
+        <v>-0.20893023956554943</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>0.24686778853090627</v>
+        <v>-0.19799034893809606</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>0.41105423379843198</v>
+        <v>-0.2913100176822479</v>
       </c>
       <c r="V15">
         <f t="shared" si="0"/>
-        <v>0.28452342895324223</v>
+        <v>-0.22150115952739008</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1641,7 +1641,7 @@
         <v>0.12690400383755962</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:W16" si="1">((SUM(D5:D7)-SUM(D2:D4))/SUM(D2:D4))</f>
+        <f t="shared" ref="D16:V16" si="1">((SUM(D5:D7)-SUM(D2:D4))/SUM(D2:D4))</f>
         <v>3.3881520799069594E-2</v>
       </c>
       <c r="E16">
@@ -1730,7 +1730,7 @@
         <v>3.2946482726638873E-2</v>
       </c>
       <c r="D17">
-        <f t="shared" ref="D17:W17" si="2">((SUM(D8:D10)-SUM(D5:D7))/SUM(D5:D7))</f>
+        <f t="shared" ref="D17:V17" si="2">((SUM(D8:D10)-SUM(D5:D7))/SUM(D5:D7))</f>
         <v>6.7768571708166931E-3</v>
       </c>
       <c r="E17">
@@ -1819,7 +1819,7 @@
         <v>2.0882469262548026E-2</v>
       </c>
       <c r="D18">
-        <f t="shared" ref="D18:W18" si="3">((SUM(D11:D13)-SUM(D8:D10))/SUM(D8:D10))</f>
+        <f t="shared" ref="D18:V18" si="3">((SUM(D11:D13)-SUM(D8:D10))/SUM(D8:D10))</f>
         <v>8.7104001711609785E-2</v>
       </c>
       <c r="E18">
@@ -1905,83 +1905,83 @@
       </c>
       <c r="C19">
         <f t="shared" ref="C19:V19" si="4">AVERAGE(C15:C18)</f>
-        <v>0.13369079503342007</v>
+        <v>-2.0182773180920145E-2</v>
       </c>
       <c r="D19">
         <f t="shared" si="4"/>
-        <v>6.0922091472260784E-2</v>
+        <v>5.9697895891173969E-3</v>
       </c>
       <c r="E19">
         <f t="shared" si="4"/>
-        <v>0.1146283328412887</v>
+        <v>1.4376296506447391E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="4"/>
-        <v>0.10552494753657264</v>
+        <v>-3.1295552078248884E-3</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>0.10288749554310464</v>
+        <v>1.0115025420064743E-2</v>
       </c>
       <c r="H19">
         <f t="shared" si="4"/>
-        <v>5.4748282597349152E-2</v>
+        <v>-1.4574574857691947E-2</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>1.1046548696649498E-2</v>
+        <v>7.0288587505634263E-3</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>6.8979478291523441E-2</v>
+        <v>1.5205563422684091E-2</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>6.0978790760320853E-2</v>
+        <v>7.6693284828410948E-3</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>6.4996675923634228E-2</v>
+        <v>1.0777040592458979E-2</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
-        <v>6.9946689205954773E-2</v>
+        <v>1.158570545979714E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="4"/>
-        <v>7.0045896545221434E-2</v>
+        <v>2.4193131044016412E-3</v>
       </c>
       <c r="O19">
         <f t="shared" si="4"/>
-        <v>8.3105217857657579E-2</v>
+        <v>2.0606637987675213E-2</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>7.3128359035380661E-2</v>
+        <v>-5.3455150969899598E-4</v>
       </c>
       <c r="Q19">
         <f t="shared" si="4"/>
-        <v>4.7822411343172326E-2</v>
+        <v>-4.8036921943920719E-3</v>
       </c>
       <c r="R19">
         <f t="shared" si="4"/>
-        <v>9.7475335711986577E-2</v>
+        <v>1.5956487983047322E-2</v>
       </c>
       <c r="S19">
         <f t="shared" si="4"/>
-        <v>0.12834325411520425</v>
+        <v>1.0082939778113448E-2</v>
       </c>
       <c r="T19">
         <f t="shared" si="4"/>
-        <v>0.14936444598979698</v>
+        <v>3.8149911622546398E-2</v>
       </c>
       <c r="U19">
         <f t="shared" si="4"/>
-        <v>0.18717986566103262</v>
+        <v>1.1588802790862636E-2</v>
       </c>
       <c r="V19">
         <f t="shared" si="4"/>
-        <v>0.12165119825322328</v>
+        <v>-4.8549488669347952E-3</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -1993,83 +1993,83 @@
       </c>
       <c r="C20">
         <f>((C15-B15)/B15)</f>
-        <v>0.93579591135305584</v>
+        <v>-2.4296548752033225</v>
       </c>
       <c r="D20">
         <f t="shared" ref="D20:V20" si="5">((D15-C15)/C15)</f>
-        <v>-0.6725534198824713</v>
+        <v>-0.6026864041119171</v>
       </c>
       <c r="E20">
         <f t="shared" si="5"/>
-        <v>0.90127303771123435</v>
+        <v>0.73850205152776693</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>9.1836011488016123E-2</v>
+        <v>7.402260204419947E-2</v>
       </c>
       <c r="G20">
         <f t="shared" si="5"/>
-        <v>-0.15805433903910135</v>
+        <v>-0.13142579716402614</v>
       </c>
       <c r="H20">
         <f t="shared" si="5"/>
-        <v>-0.26849971817672957</v>
+        <v>-0.23384173486604692</v>
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
-        <v>-0.94556647154684614</v>
+        <v>-0.93799901159313925</v>
       </c>
       <c r="J20">
         <f t="shared" si="5"/>
-        <v>13.045513551907879</v>
+        <v>11.717725671871639</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>-9.0704216726593973E-3</v>
+        <v>-8.1547518233967987E-3</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>1.7944823458728356E-2</v>
+        <v>1.6104098800309857E-2</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>8.0570215582877219E-2</v>
+        <v>7.1712889778346944E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
-        <v>0.16879066539888876</v>
+        <v>0.1474980757049944</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>-8.0212829481597067E-2</v>
+        <v>-7.0810659132279977E-2</v>
       </c>
       <c r="P20">
         <f t="shared" si="5"/>
-        <v>0.19085082456179045</v>
+        <v>0.16479365047477632</v>
       </c>
       <c r="Q20">
         <f t="shared" si="5"/>
-        <v>-0.29941844259841344</v>
+        <v>-0.26955790557324449</v>
       </c>
       <c r="R20">
         <f t="shared" si="5"/>
-        <v>0.59096944104427584</v>
+        <v>0.50242199797724651</v>
       </c>
       <c r="S20">
         <f t="shared" si="5"/>
-        <v>0.49857726712443834</v>
+        <v>0.39440939926219254</v>
       </c>
       <c r="T20">
         <f t="shared" si="5"/>
-        <v>-6.5287807364731595E-2</v>
+        <v>-5.2361451603185047E-2</v>
       </c>
       <c r="U20">
         <f t="shared" si="5"/>
-        <v>0.66507844642101055</v>
+        <v>0.4713344324340239</v>
       </c>
       <c r="V20">
         <f t="shared" si="5"/>
-        <v>-0.30782022040244078</v>
+        <v>-0.23963768465732338</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>9.7147827227979086E-2</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:W24" si="9">AVERAGE(D2,C9:C13)</f>
+        <f t="shared" ref="D24:V24" si="9">AVERAGE(D2,C9:C13)</f>
         <v>8.5065795305200212E-2</v>
       </c>
       <c r="E24">
@@ -2535,7 +2535,7 @@
         <v>8.7589705597494974E-2</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:W26" si="11">AVERAGE(D2:D4,C11:C13)</f>
+        <f t="shared" ref="D26:V26" si="11">AVERAGE(D2:D4,C11:C13)</f>
         <v>8.3839099019859295E-2</v>
       </c>
       <c r="E26">
@@ -2624,7 +2624,7 @@
         <v>8.3317264655787163E-2</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:W27" si="12">AVERAGE(C12:C13,D2:D5)</f>
+        <f t="shared" ref="D27:V27" si="12">AVERAGE(C12:C13,D2:D5)</f>
         <v>8.2146657589460673E-2</v>
       </c>
       <c r="E27">
@@ -2713,7 +2713,7 @@
         <v>8.3054835938716334E-2</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28:W28" si="13">AVERAGE(D2:D6,C13)</f>
+        <f t="shared" ref="D28:V28" si="13">AVERAGE(D2:D6,C13)</f>
         <v>8.2202307381715037E-2</v>
       </c>
       <c r="E28">
@@ -2794,87 +2794,87 @@
         <v>46</v>
       </c>
       <c r="B29">
-        <f>AVERAGE(B2:B7)</f>
+        <f t="shared" ref="B29:V29" si="14">AVERAGE(B2:B7)</f>
         <v>6.8147423087085005E-2</v>
       </c>
       <c r="C29">
-        <f>AVERAGE(C2:C7)</f>
+        <f t="shared" si="14"/>
         <v>7.9138701621859403E-2</v>
       </c>
       <c r="D29">
-        <f>AVERAGE(D2:D7)</f>
+        <f t="shared" si="14"/>
         <v>8.0588260330675551E-2</v>
       </c>
       <c r="E29">
-        <f>AVERAGE(E2:E7)</f>
+        <f t="shared" si="14"/>
         <v>8.0647169643560848E-2</v>
       </c>
       <c r="F29">
-        <f>AVERAGE(F2:F7)</f>
+        <f t="shared" si="14"/>
         <v>8.0733287926736744E-2</v>
       </c>
       <c r="G29">
-        <f>AVERAGE(G2:G7)</f>
+        <f t="shared" si="14"/>
         <v>7.9518910651237132E-2</v>
       </c>
       <c r="H29">
-        <f>AVERAGE(H2:H7)</f>
+        <f t="shared" si="14"/>
         <v>8.269887677012798E-2</v>
       </c>
       <c r="I29">
-        <f>AVERAGE(I2:I7)</f>
+        <f t="shared" si="14"/>
         <v>8.2526574134185696E-2</v>
       </c>
       <c r="J29">
-        <f>AVERAGE(J2:J7)</f>
+        <f t="shared" si="14"/>
         <v>8.0220299501465184E-2</v>
       </c>
       <c r="K29">
-        <f>AVERAGE(K2:K7)</f>
+        <f t="shared" si="14"/>
         <v>8.2803168365791976E-2</v>
       </c>
       <c r="L29">
-        <f>AVERAGE(L2:L7)</f>
+        <f t="shared" si="14"/>
         <v>8.2268463361236541E-2</v>
       </c>
       <c r="M29">
-        <f>AVERAGE(M2:M7)</f>
+        <f t="shared" si="14"/>
         <v>8.0915094081062122E-2</v>
       </c>
       <c r="N29">
-        <f>AVERAGE(N2:N7)</f>
+        <f t="shared" si="14"/>
         <v>8.1286476322566178E-2</v>
       </c>
       <c r="O29">
-        <f>AVERAGE(O2:O7)</f>
+        <f t="shared" si="14"/>
         <v>7.8361314320482281E-2</v>
       </c>
       <c r="P29">
-        <f>AVERAGE(P2:P7)</f>
+        <f t="shared" si="14"/>
         <v>8.1756859943091634E-2</v>
       </c>
       <c r="Q29">
-        <f>AVERAGE(Q2:Q7)</f>
+        <f t="shared" si="14"/>
         <v>8.2443442438987283E-2</v>
       </c>
       <c r="R29">
-        <f>AVERAGE(R2:R7)</f>
+        <f t="shared" si="14"/>
         <v>7.8940411149431802E-2</v>
       </c>
       <c r="S29">
-        <f>AVERAGE(S2:S7)</f>
+        <f t="shared" si="14"/>
         <v>7.8143407683197927E-2</v>
       </c>
       <c r="T29">
-        <f>AVERAGE(T2:T7)</f>
+        <f t="shared" si="14"/>
         <v>7.1723554528871594E-2</v>
       </c>
       <c r="U29">
-        <f>AVERAGE(U2:U7)</f>
+        <f t="shared" si="14"/>
         <v>7.5905389001373932E-2</v>
       </c>
       <c r="V29">
-        <f>AVERAGE(V2:V7)</f>
+        <f t="shared" si="14"/>
         <v>8.0480738361936408E-2</v>
       </c>
     </row>
@@ -2883,87 +2883,87 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <f>AVERAGE(B3:B8)</f>
+        <f t="shared" ref="B30:V30" si="15">AVERAGE(B3:B8)</f>
         <v>7.3779298523429113E-2</v>
       </c>
       <c r="C30">
-        <f>AVERAGE(C3:C8)</f>
+        <f t="shared" si="15"/>
         <v>8.1290590105288857E-2</v>
       </c>
       <c r="D30">
-        <f>AVERAGE(D3:D8)</f>
+        <f t="shared" si="15"/>
         <v>8.1363816566779393E-2</v>
       </c>
       <c r="E30">
-        <f>AVERAGE(E3:E8)</f>
+        <f t="shared" si="15"/>
         <v>8.2671838528891081E-2</v>
       </c>
       <c r="F30">
-        <f>AVERAGE(F3:F8)</f>
+        <f t="shared" si="15"/>
         <v>8.3225614925903066E-2</v>
       </c>
       <c r="G30">
-        <f>AVERAGE(G3:G8)</f>
+        <f t="shared" si="15"/>
         <v>8.3315808820254009E-2</v>
       </c>
       <c r="H30">
-        <f>AVERAGE(H3:H8)</f>
+        <f t="shared" si="15"/>
         <v>8.6370810901197151E-2</v>
       </c>
       <c r="I30">
-        <f>AVERAGE(I3:I8)</f>
+        <f t="shared" si="15"/>
         <v>8.5734872103291296E-2</v>
       </c>
       <c r="J30">
-        <f>AVERAGE(J3:J8)</f>
+        <f t="shared" si="15"/>
         <v>8.5813157792477987E-2</v>
       </c>
       <c r="K30">
-        <f>AVERAGE(K3:K8)</f>
+        <f t="shared" si="15"/>
         <v>8.5334036145320161E-2</v>
       </c>
       <c r="L30">
-        <f>AVERAGE(L3:L8)</f>
+        <f t="shared" si="15"/>
         <v>8.6345575249429388E-2</v>
       </c>
       <c r="M30">
-        <f>AVERAGE(M3:M8)</f>
+        <f t="shared" si="15"/>
         <v>8.3784274526311167E-2</v>
       </c>
       <c r="N30">
-        <f>AVERAGE(N3:N8)</f>
+        <f t="shared" si="15"/>
         <v>8.4759750025900485E-2</v>
       </c>
       <c r="O30">
-        <f>AVERAGE(O3:O8)</f>
+        <f t="shared" si="15"/>
         <v>8.2770785470760444E-2</v>
       </c>
       <c r="P30">
-        <f>AVERAGE(P3:P8)</f>
+        <f t="shared" si="15"/>
         <v>8.301765126991717E-2</v>
       </c>
       <c r="Q30">
-        <f>AVERAGE(Q3:Q8)</f>
+        <f t="shared" si="15"/>
         <v>8.4000885040454887E-2</v>
       </c>
       <c r="R30">
-        <f>AVERAGE(R3:R8)</f>
+        <f t="shared" si="15"/>
         <v>8.2238065935610352E-2</v>
       </c>
       <c r="S30">
-        <f>AVERAGE(S3:S8)</f>
+        <f t="shared" si="15"/>
         <v>8.2263209281832977E-2</v>
       </c>
       <c r="T30">
-        <f>AVERAGE(T3:T8)</f>
+        <f t="shared" si="15"/>
         <v>7.5311192445774749E-2</v>
       </c>
       <c r="U30">
-        <f>AVERAGE(U3:U8)</f>
+        <f t="shared" si="15"/>
         <v>8.0781739461903798E-2</v>
       </c>
       <c r="V30">
-        <f>AVERAGE(V3:V8)</f>
+        <f t="shared" si="15"/>
         <v>8.2229445875377574E-2</v>
       </c>
     </row>
@@ -2972,87 +2972,87 @@
         <v>47</v>
       </c>
       <c r="B31">
-        <f>AVERAGE(B4:B9)</f>
+        <f t="shared" ref="B31:V31" si="16">AVERAGE(B4:B9)</f>
         <v>8.0706913178085524E-2</v>
       </c>
       <c r="C31">
-        <f>AVERAGE(C4:C9)</f>
+        <f t="shared" si="16"/>
         <v>8.3994104053199417E-2</v>
       </c>
       <c r="D31">
-        <f>AVERAGE(D4:D9)</f>
+        <f t="shared" si="16"/>
         <v>8.3261580278730693E-2</v>
       </c>
       <c r="E31">
-        <f>AVERAGE(E4:E9)</f>
+        <f t="shared" si="16"/>
         <v>8.4795636239995045E-2</v>
       </c>
       <c r="F31">
-        <f>AVERAGE(F4:F9)</f>
+        <f t="shared" si="16"/>
         <v>8.6833724025752235E-2</v>
       </c>
       <c r="G31">
-        <f>AVERAGE(G4:G9)</f>
+        <f t="shared" si="16"/>
         <v>8.7735050251651236E-2</v>
       </c>
       <c r="H31">
-        <f>AVERAGE(H4:H9)</f>
+        <f t="shared" si="16"/>
         <v>8.8504171580231397E-2</v>
       </c>
       <c r="I31">
-        <f>AVERAGE(I4:I9)</f>
+        <f t="shared" si="16"/>
         <v>8.809913429420152E-2</v>
       </c>
       <c r="J31">
-        <f>AVERAGE(J4:J9)</f>
+        <f t="shared" si="16"/>
         <v>8.9966738765100598E-2</v>
       </c>
       <c r="K31">
-        <f>AVERAGE(K4:K9)</f>
+        <f t="shared" si="16"/>
         <v>8.9328874130304103E-2</v>
       </c>
       <c r="L31">
-        <f>AVERAGE(L4:L9)</f>
+        <f t="shared" si="16"/>
         <v>8.9517188007863582E-2</v>
       </c>
       <c r="M31">
-        <f>AVERAGE(M4:M9)</f>
+        <f t="shared" si="16"/>
         <v>8.7217697879949388E-2</v>
       </c>
       <c r="N31">
-        <f>AVERAGE(N4:N9)</f>
+        <f t="shared" si="16"/>
         <v>8.7551100306090424E-2</v>
       </c>
       <c r="O31">
-        <f>AVERAGE(O4:O9)</f>
+        <f t="shared" si="16"/>
         <v>8.5299573767840087E-2</v>
       </c>
       <c r="P31">
-        <f>AVERAGE(P4:P9)</f>
+        <f t="shared" si="16"/>
         <v>8.4441948458585811E-2</v>
       </c>
       <c r="Q31">
-        <f>AVERAGE(Q4:Q9)</f>
+        <f t="shared" si="16"/>
         <v>8.5912051554475996E-2</v>
       </c>
       <c r="R31">
-        <f>AVERAGE(R4:R9)</f>
+        <f t="shared" si="16"/>
         <v>8.6371181157760588E-2</v>
       </c>
       <c r="S31">
-        <f>AVERAGE(S4:S9)</f>
+        <f t="shared" si="16"/>
         <v>8.6863870591695966E-2</v>
       </c>
       <c r="T31">
-        <f>AVERAGE(T4:T9)</f>
+        <f t="shared" si="16"/>
         <v>7.8869789098969703E-2</v>
       </c>
       <c r="U31">
-        <f>AVERAGE(U4:U9)</f>
+        <f t="shared" si="16"/>
         <v>8.5638166547816308E-2</v>
       </c>
       <c r="V31">
-        <f>AVERAGE(V4:V9)</f>
+        <f t="shared" si="16"/>
         <v>8.5739907602801077E-2</v>
       </c>
     </row>
@@ -3061,87 +3061,87 @@
         <v>48</v>
       </c>
       <c r="B32">
-        <f>AVERAGE(B5:B10)</f>
+        <f t="shared" ref="B32:V32" si="17">AVERAGE(B5:B10)</f>
         <v>8.580434240719699E-2</v>
       </c>
       <c r="C32">
-        <f>AVERAGE(C5:C10)</f>
+        <f t="shared" si="17"/>
         <v>8.5242052811691671E-2</v>
       </c>
       <c r="D32">
-        <f>AVERAGE(D5:D10)</f>
+        <f t="shared" si="17"/>
         <v>8.2208360520153956E-2</v>
       </c>
       <c r="E32">
-        <f>AVERAGE(E5:E10)</f>
+        <f t="shared" si="17"/>
         <v>8.4523734622390601E-2</v>
       </c>
       <c r="F32">
-        <f>AVERAGE(F5:F10)</f>
+        <f t="shared" si="17"/>
         <v>8.7020197200008018E-2</v>
       </c>
       <c r="G32">
-        <f>AVERAGE(G5:G10)</f>
+        <f t="shared" si="17"/>
         <v>8.7699201482112021E-2</v>
       </c>
       <c r="H32">
-        <f>AVERAGE(H5:H10)</f>
+        <f t="shared" si="17"/>
         <v>8.9716163038123797E-2</v>
       </c>
       <c r="I32">
-        <f>AVERAGE(I5:I10)</f>
+        <f t="shared" si="17"/>
         <v>8.7586138922665924E-2</v>
       </c>
       <c r="J32">
-        <f>AVERAGE(J5:J10)</f>
+        <f t="shared" si="17"/>
         <v>8.9536911733654245E-2</v>
       </c>
       <c r="K32">
-        <f>AVERAGE(K5:K10)</f>
+        <f t="shared" si="17"/>
         <v>8.8592710018938967E-2</v>
       </c>
       <c r="L32">
-        <f>AVERAGE(L5:L10)</f>
+        <f t="shared" si="17"/>
         <v>8.8251182332206787E-2</v>
       </c>
       <c r="M32">
-        <f>AVERAGE(M5:M10)</f>
+        <f t="shared" si="17"/>
         <v>8.7107715336489019E-2</v>
       </c>
       <c r="N32">
-        <f>AVERAGE(N5:N10)</f>
+        <f t="shared" si="17"/>
         <v>8.7537487931444335E-2</v>
       </c>
       <c r="O32">
-        <f>AVERAGE(O5:O10)</f>
+        <f t="shared" si="17"/>
         <v>8.4818972760488776E-2</v>
       </c>
       <c r="P32">
-        <f>AVERAGE(P5:P10)</f>
+        <f t="shared" si="17"/>
         <v>8.4085329291631525E-2</v>
       </c>
       <c r="Q32">
-        <f>AVERAGE(Q5:Q10)</f>
+        <f t="shared" si="17"/>
         <v>8.4551459708184853E-2</v>
       </c>
       <c r="R32">
-        <f>AVERAGE(R5:R10)</f>
+        <f t="shared" si="17"/>
         <v>8.6218469234575656E-2</v>
       </c>
       <c r="S32">
-        <f>AVERAGE(S5:S10)</f>
+        <f t="shared" si="17"/>
         <v>8.7903996393141892E-2</v>
       </c>
       <c r="T32">
-        <f>AVERAGE(T5:T10)</f>
+        <f t="shared" si="17"/>
         <v>8.3344495475691907E-2</v>
       </c>
       <c r="U32">
-        <f>AVERAGE(U5:U10)</f>
+        <f t="shared" si="17"/>
         <v>8.5788151002059679E-2</v>
       </c>
       <c r="V32">
-        <f>AVERAGE(V5:V10)</f>
+        <f t="shared" si="17"/>
         <v>8.6701340787168082E-2</v>
       </c>
     </row>
@@ -3150,87 +3150,87 @@
         <v>49</v>
       </c>
       <c r="B33">
-        <f>AVERAGE(B6:B11)</f>
+        <f t="shared" ref="B33:V33" si="18">AVERAGE(B6:B11)</f>
         <v>8.9713950536455797E-2</v>
       </c>
       <c r="C33">
-        <f>AVERAGE(C6:C11)</f>
+        <f t="shared" si="18"/>
         <v>8.5937801694468172E-2</v>
       </c>
       <c r="D33">
-        <f>AVERAGE(D6:D11)</f>
+        <f t="shared" si="18"/>
         <v>8.3124045259444904E-2</v>
       </c>
       <c r="E33">
-        <f>AVERAGE(E6:E11)</f>
+        <f t="shared" si="18"/>
         <v>8.5919492769596151E-2</v>
       </c>
       <c r="F33">
-        <f>AVERAGE(F6:F11)</f>
+        <f t="shared" si="18"/>
         <v>8.951185149585926E-2</v>
       </c>
       <c r="G33">
-        <f>AVERAGE(G6:G11)</f>
+        <f t="shared" si="18"/>
         <v>9.0022326009239026E-2</v>
       </c>
       <c r="H33">
-        <f>AVERAGE(H6:H11)</f>
+        <f t="shared" si="18"/>
         <v>8.9039230088236887E-2</v>
       </c>
       <c r="I33">
-        <f>AVERAGE(I6:I11)</f>
+        <f t="shared" si="18"/>
         <v>8.7067933895520436E-2</v>
       </c>
       <c r="J33">
-        <f>AVERAGE(J6:J11)</f>
+        <f t="shared" si="18"/>
         <v>8.9333571394413544E-2</v>
       </c>
       <c r="K33">
-        <f>AVERAGE(K6:K11)</f>
+        <f t="shared" si="18"/>
         <v>8.8041396850320641E-2</v>
       </c>
       <c r="L33">
-        <f>AVERAGE(L6:L11)</f>
+        <f t="shared" si="18"/>
         <v>8.8128463335435378E-2</v>
       </c>
       <c r="M33">
-        <f>AVERAGE(M6:M11)</f>
+        <f t="shared" si="18"/>
         <v>8.8048035411667322E-2</v>
       </c>
       <c r="N33">
-        <f>AVERAGE(N6:N11)</f>
+        <f t="shared" si="18"/>
         <v>8.7833594732652551E-2</v>
       </c>
       <c r="O33">
-        <f>AVERAGE(O6:O11)</f>
+        <f t="shared" si="18"/>
         <v>8.6938172764474145E-2</v>
       </c>
       <c r="P33">
-        <f>AVERAGE(P6:P11)</f>
+        <f t="shared" si="18"/>
         <v>8.4006851049662157E-2</v>
       </c>
       <c r="Q33">
-        <f>AVERAGE(Q6:Q11)</f>
+        <f t="shared" si="18"/>
         <v>8.6349748909342994E-2</v>
       </c>
       <c r="R33">
-        <f>AVERAGE(R6:R11)</f>
+        <f t="shared" si="18"/>
         <v>8.7897631050665892E-2</v>
       </c>
       <c r="S33">
-        <f>AVERAGE(S6:S11)</f>
+        <f t="shared" si="18"/>
         <v>9.0041997702336563E-2</v>
       </c>
       <c r="T33">
-        <f>AVERAGE(T6:T11)</f>
+        <f t="shared" si="18"/>
         <v>8.9843233934624581E-2</v>
       </c>
       <c r="U33">
-        <f>AVERAGE(U6:U11)</f>
+        <f t="shared" si="18"/>
         <v>8.7823705008664252E-2</v>
       </c>
       <c r="V33">
-        <f>AVERAGE(V6:V11)</f>
+        <f t="shared" si="18"/>
         <v>8.7683684538030535E-2</v>
       </c>
     </row>
@@ -3239,87 +3239,87 @@
         <v>50</v>
       </c>
       <c r="B34">
-        <f>AVERAGE(B7:B12)</f>
+        <f t="shared" ref="B34:V34" si="19">AVERAGE(B7:B12)</f>
         <v>9.5330467740955216E-2</v>
       </c>
       <c r="C34">
-        <f>AVERAGE(C7:C12)</f>
+        <f t="shared" si="19"/>
         <v>8.4830065452435321E-2</v>
       </c>
       <c r="D34">
-        <f>AVERAGE(D7:D12)</f>
+        <f t="shared" si="19"/>
         <v>8.4818227999647888E-2</v>
       </c>
       <c r="E34">
-        <f>AVERAGE(E7:E12)</f>
+        <f t="shared" si="19"/>
         <v>8.5436457139052444E-2</v>
       </c>
       <c r="F34">
-        <f>AVERAGE(F7:F12)</f>
+        <f t="shared" si="19"/>
         <v>8.6430452008647352E-2</v>
       </c>
       <c r="G34">
-        <f>AVERAGE(G7:G12)</f>
+        <f t="shared" si="19"/>
         <v>8.7917444224334271E-2</v>
       </c>
       <c r="H34">
-        <f>AVERAGE(H7:H12)</f>
+        <f t="shared" si="19"/>
         <v>8.5705785608528998E-2</v>
       </c>
       <c r="I34">
-        <f>AVERAGE(I7:I12)</f>
+        <f t="shared" si="19"/>
         <v>8.5164742201395582E-2</v>
       </c>
       <c r="J34">
-        <f>AVERAGE(J7:J12)</f>
+        <f t="shared" si="19"/>
         <v>8.8298358512277839E-2</v>
       </c>
       <c r="K34">
-        <f>AVERAGE(K7:K12)</f>
+        <f t="shared" si="19"/>
         <v>8.5307083014777865E-2</v>
       </c>
       <c r="L34">
-        <f>AVERAGE(L7:L12)</f>
+        <f t="shared" si="19"/>
         <v>8.521511353664786E-2</v>
       </c>
       <c r="M34">
-        <f>AVERAGE(M7:M12)</f>
+        <f t="shared" si="19"/>
         <v>8.4770288959751472E-2</v>
       </c>
       <c r="N34">
-        <f>AVERAGE(N7:N12)</f>
+        <f t="shared" si="19"/>
         <v>8.4954388855952731E-2</v>
       </c>
       <c r="O34">
-        <f>AVERAGE(O7:O12)</f>
+        <f t="shared" si="19"/>
         <v>8.6665349207758993E-2</v>
       </c>
       <c r="P34">
-        <f>AVERAGE(P7:P12)</f>
+        <f t="shared" si="19"/>
         <v>8.3425861452739072E-2</v>
       </c>
       <c r="Q34">
-        <f>AVERAGE(Q7:Q12)</f>
+        <f t="shared" si="19"/>
         <v>8.4292412694878568E-2</v>
       </c>
       <c r="R34">
-        <f>AVERAGE(R7:R12)</f>
+        <f t="shared" si="19"/>
         <v>8.6974077355071067E-2</v>
       </c>
       <c r="S34">
-        <f>AVERAGE(S7:S12)</f>
+        <f t="shared" si="19"/>
         <v>8.7590908705629467E-2</v>
       </c>
       <c r="T34">
-        <f>AVERAGE(T7:T12)</f>
+        <f t="shared" si="19"/>
         <v>9.1998884502962966E-2</v>
       </c>
       <c r="U34">
-        <f>AVERAGE(U7:U12)</f>
+        <f t="shared" si="19"/>
         <v>8.9130650706910008E-2</v>
       </c>
       <c r="V34">
-        <f>AVERAGE(V7:V12)</f>
+        <f t="shared" si="19"/>
         <v>8.6413126312132341E-2</v>
       </c>
     </row>
@@ -3328,87 +3328,87 @@
         <v>51</v>
       </c>
       <c r="B35">
-        <f>AVERAGE(B8:B13)</f>
+        <f t="shared" ref="B35:V35" si="20">AVERAGE(B8:B13)</f>
         <v>9.851924357958157E-2</v>
       </c>
       <c r="C35">
-        <f>AVERAGE(C8:C13)</f>
+        <f t="shared" si="20"/>
         <v>8.7527965044807157E-2</v>
       </c>
       <c r="D35">
-        <f>AVERAGE(D8:D13)</f>
+        <f t="shared" si="20"/>
         <v>8.6078406335991023E-2</v>
       </c>
       <c r="E35">
-        <f>AVERAGE(E8:E13)</f>
+        <f t="shared" si="20"/>
         <v>8.6019497023105726E-2</v>
       </c>
       <c r="F35">
-        <f>AVERAGE(F8:F13)</f>
+        <f t="shared" si="20"/>
         <v>8.5933378739929844E-2</v>
       </c>
       <c r="G35">
-        <f>AVERAGE(G8:G13)</f>
+        <f t="shared" si="20"/>
         <v>8.7147756015429456E-2</v>
       </c>
       <c r="H35">
-        <f>AVERAGE(H8:H13)</f>
+        <f t="shared" si="20"/>
         <v>8.3967789896538678E-2</v>
       </c>
       <c r="I35">
-        <f>AVERAGE(I8:I13)</f>
+        <f t="shared" si="20"/>
         <v>8.4140092532480892E-2</v>
       </c>
       <c r="J35">
-        <f>AVERAGE(J8:J13)</f>
+        <f t="shared" si="20"/>
         <v>8.6446367165201363E-2</v>
       </c>
       <c r="K35">
-        <f>AVERAGE(K8:K13)</f>
+        <f t="shared" si="20"/>
         <v>8.3863498300874639E-2</v>
       </c>
       <c r="L35">
-        <f>AVERAGE(L8:L13)</f>
+        <f t="shared" si="20"/>
         <v>8.4398203305430061E-2</v>
       </c>
       <c r="M35">
-        <f>AVERAGE(M8:M13)</f>
+        <f t="shared" si="20"/>
         <v>8.5751572585604452E-2</v>
       </c>
       <c r="N35">
-        <f>AVERAGE(N8:N13)</f>
+        <f t="shared" si="20"/>
         <v>8.5380190344100396E-2</v>
       </c>
       <c r="O35">
-        <f>AVERAGE(O8:O13)</f>
+        <f t="shared" si="20"/>
         <v>8.8305352346184307E-2</v>
       </c>
       <c r="P35">
-        <f>AVERAGE(P8:P13)</f>
+        <f t="shared" si="20"/>
         <v>8.4909806723574913E-2</v>
       </c>
       <c r="Q35">
-        <f>AVERAGE(Q8:Q13)</f>
+        <f t="shared" si="20"/>
         <v>8.4223224227679305E-2</v>
       </c>
       <c r="R35">
-        <f>AVERAGE(R8:R13)</f>
+        <f t="shared" si="20"/>
         <v>8.7726255517234827E-2</v>
       </c>
       <c r="S35">
-        <f>AVERAGE(S8:S13)</f>
+        <f t="shared" si="20"/>
         <v>8.8523258983468675E-2</v>
       </c>
       <c r="T35">
-        <f>AVERAGE(T8:T13)</f>
+        <f t="shared" si="20"/>
         <v>9.4943112137794952E-2</v>
       </c>
       <c r="U35">
-        <f>AVERAGE(U8:U13)</f>
+        <f t="shared" si="20"/>
         <v>9.0761277665292628E-2</v>
       </c>
       <c r="V35">
-        <f>AVERAGE(V8:V13)</f>
+        <f t="shared" si="20"/>
         <v>8.6185928304730139E-2</v>
       </c>
     </row>
